--- a/文档/无尽深空策划案.xlsx
+++ b/文档/无尽深空策划案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13200" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13200" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="2" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="循环" sheetId="9" r:id="rId3"/>
     <sheet name="属性解释" sheetId="4" r:id="rId4"/>
     <sheet name="核心与护甲" sheetId="3" r:id="rId5"/>
-    <sheet name="技能-" sheetId="6" r:id="rId6"/>
-    <sheet name="神器-" sheetId="7" r:id="rId7"/>
+    <sheet name="技能# " sheetId="6" r:id="rId6"/>
+    <sheet name="神器#" sheetId="7" r:id="rId7"/>
     <sheet name="养成天赋" sheetId="5" r:id="rId8"/>
     <sheet name="buff" sheetId="8" r:id="rId9"/>
+    <sheet name="alpha测试版内容" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>POE与ROGUELITE游戏分析</t>
   </si>
@@ -724,14 +725,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>攻击-范围-手动施放-单次伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击-范围-手动施放-持续伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>小明技能换为动能声波(攻击-范围-手动施放-持续伤害) 和 能量场(攻击-范围-自施放-持续伤害)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -772,12 +765,44 @@
     <t>小明选择了A战舰，该战舰有高等级的能量场技能和神器零点射击，和增加最大生命的装备及被动技能，并且直接从40层开始。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>动能声波：发出环形波，对周围敌人持续造成伤害。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-自施放-持续伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-手动施放-持续伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做带有#的sheet里的内容</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概三种怪物AI 无boss</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>只掉落技能和神器。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：（玩家攻击力-怪物防御力）* 技能伤害比例 *其它伤害影响</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害比例 = 基础伤害比例 * 不同词缀加成</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +920,12 @@
       <color rgb="FF92D050"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3349,6 +3380,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
@@ -3443,7 +3515,7 @@
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J6" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
@@ -3471,32 +3543,32 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J11" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J12" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J13" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J14" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J15" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J16" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -3687,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3747,7 +3819,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>105</v>
@@ -3767,10 +3839,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>68</v>
